--- a/数据整理.xlsx
+++ b/数据整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\github\YueDuBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88F924F-8F56-4135-B482-7A70845C256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA7FA8-86BD-492A-9A85-157BC0CAC603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="2" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="9" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18BookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://yck.mumuceo.com/yuedu/rssyuan/jsons?id=765</t>
   </si>
   <si>
@@ -487,9 +483,6 @@
     <t>http://shuyuan.miaogongzi.net/shuyuan/1619456819.json</t>
   </si>
   <si>
-    <t>https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18RssSource.json</t>
-  </si>
-  <si>
     <t>GJTQQ 净化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,9 +590,6 @@
     <t>DaFont（英文）</t>
   </si>
   <si>
-    <t>ifwlzs订阅源</t>
-  </si>
-  <si>
     <t>订阅源1</t>
   </si>
   <si>
@@ -707,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ifwlzs R18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不世玄奇 全网通用源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,12 +797,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ifwlzs的发布页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ifwlzs/YueDuBackup/releases/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>oli-fa R18</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18BookSource.json</t>
+  </si>
+  <si>
+    <t>oli-fa的发布页</t>
+  </si>
+  <si>
+    <t>https://github.com/oli-fa/YueDuBackup/releases/</t>
+  </si>
+  <si>
+    <t>oli-fa订阅源</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18RssSource.json</t>
   </si>
 </sst>
 </file>
@@ -1166,6 +1162,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,9 +1177,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1223,20 +1219,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1249,6 +1231,50 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1257,11 +1283,17 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1271,6 +1303,56 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1278,6 +1360,77 @@
         <sz val="14"/>
         <name val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1363,6 +1516,63 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -1391,6 +1601,56 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1420,6 +1680,120 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
@@ -1441,6 +1815,49 @@
         <color theme="1"/>
         <name val="宋体"/>
         <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1510,427 +1927,6 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
         <name val="宋体"/>
         <charset val="134"/>
         <scheme val="none"/>
@@ -2511,70 +2507,70 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}" name="表9" displayName="表9" ref="A1:C5" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}" name="表9" displayName="表9" ref="A1:C5" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="A1:C5" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{91A5ED27-167C-4C7E-8382-A0CB17097771}" name="序号" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{5FF0381E-9EF5-4F42-AAD0-B8F04737E501}" name="贡献者及概述" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2DDB11BB-43A4-4AF1-A7CF-87E3E926B20A}" name="地址" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{91A5ED27-167C-4C7E-8382-A0CB17097771}" name="序号" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{5FF0381E-9EF5-4F42-AAD0-B8F04737E501}" name="贡献者及概述" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{2DDB11BB-43A4-4AF1-A7CF-87E3E926B20A}" name="地址" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}" name="表10" displayName="表10" ref="A1:C5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}" name="表10" displayName="表10" ref="A1:C5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
   <autoFilter ref="A1:C5" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3216B9F9-BD07-446F-94C8-868767E5DBEA}" name="序号" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{FAA6CDCE-40E1-4500-9002-1301E2F0012D}" name="贡献者及概述" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{05EA6986-5398-4511-B6F0-8346FF24994C}" name="地址" dataDxfId="8" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{3216B9F9-BD07-446F-94C8-868767E5DBEA}" name="序号" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{FAA6CDCE-40E1-4500-9002-1301E2F0012D}" name="贡献者及概述" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{05EA6986-5398-4511-B6F0-8346FF24994C}" name="地址" dataDxfId="26" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}" name="表11" displayName="表11" ref="A1:C4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}" name="表11" displayName="表11" ref="A1:C4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:C4" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2C68F0C7-EA52-4C0D-98E4-A84E77036619}" name="序号" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{830C193C-5696-4964-919D-F19509997A77}" name="贡献者及概述" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E3688F2C-EF2A-4A4D-9C59-B56618F62883}" name="地址" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2C68F0C7-EA52-4C0D-98E4-A84E77036619}" name="序号" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{830C193C-5696-4964-919D-F19509997A77}" name="贡献者及概述" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E3688F2C-EF2A-4A4D-9C59-B56618F62883}" name="地址" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}" name="表12" displayName="表12" ref="A1:C4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}" name="表12" displayName="表12" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
   <autoFilter ref="A1:C4" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEDDCD38-D943-458C-A87E-8C13CEBC60DB}" name="序号" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{BCBB1BE6-D033-4D9E-BDFC-75D9037A7F24}" name="贡献者及概述" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B9938B71-DE73-4AF1-AACA-96AF42B00F43}" name="地址" dataDxfId="4" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{BEDDCD38-D943-458C-A87E-8C13CEBC60DB}" name="序号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BCBB1BE6-D033-4D9E-BDFC-75D9037A7F24}" name="贡献者及概述" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B9938B71-DE73-4AF1-AACA-96AF42B00F43}" name="地址" dataDxfId="12" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}" name="表13" displayName="表13" ref="A1:C9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}" name="表13" displayName="表13" ref="A1:C9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
   <autoFilter ref="A1:C9" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65082791-741B-4F1F-A02F-A3459CE3D366}" name="序号" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{C6BDDD30-4CDA-4ABE-8F44-09AD6BADEB38}" name="贡献者及概述" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{33C696C7-A033-48CB-B21E-5B991ED07242}" name="地址" dataDxfId="2" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{65082791-741B-4F1F-A02F-A3459CE3D366}" name="序号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C6BDDD30-4CDA-4ABE-8F44-09AD6BADEB38}" name="贡献者及概述" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{33C696C7-A033-48CB-B21E-5B991ED07242}" name="地址" dataDxfId="6" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}" name="表14" displayName="表14" ref="A1:C4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}" name="表14" displayName="表14" ref="A1:C4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4">
   <autoFilter ref="A1:C4" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A53C8E88-865C-481A-8B2E-7A36F1B11B8F}" name="序号" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{A53C8E88-865C-481A-8B2E-7A36F1B11B8F}" name="序号" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{BF5FBCB5-A727-4351-AE12-3F32FDFC90BD}" name="贡献者及概述" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{A47D4E4B-5E09-4709-8428-A76423FB1783}" name="地址" dataDxfId="0"/>
   </tableColumns>
@@ -2646,36 +2642,36 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}" name="表3" displayName="表3" ref="A27:C47" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}" name="表3" displayName="表3" ref="A27:C47" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A27:C47" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{066F47BE-8688-476B-8F09-0388BC6B6137}" name="序号" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{613C778E-B08F-4640-96FC-2876D027745A}" name="贡献者及概述" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{DF8CA84D-90EE-4FE1-9E0A-3BC75326C828}" name="地址" dataDxfId="14" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{066F47BE-8688-476B-8F09-0388BC6B6137}" name="序号" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{613C778E-B08F-4640-96FC-2876D027745A}" name="贡献者及概述" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{DF8CA84D-90EE-4FE1-9E0A-3BC75326C828}" name="地址" dataDxfId="49" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}" name="表4" displayName="表4" ref="A3:C22" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}" name="表4" displayName="表4" ref="A3:C22" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A3:C22" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B56774E-FDFE-42BF-9E85-0AF84995787C}" name="序号" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{14E7B89C-BCA9-4253-B66B-B823F519AFD9}" name="贡献者及概述" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{5094653F-7A90-4AAC-ABC7-2EDF315C5794}" name="地址" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{5B56774E-FDFE-42BF-9E85-0AF84995787C}" name="序号" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{14E7B89C-BCA9-4253-B66B-B823F519AFD9}" name="贡献者及概述" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5094653F-7A90-4AAC-ABC7-2EDF315C5794}" name="地址" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}" name="表5" displayName="表5" ref="A52:C62" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}" name="表5" displayName="表5" ref="A52:C62" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A52:C62" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FD1BCD14-1903-4C1B-BD45-717B706BB44A}" name="序号" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{EF959D7D-11F7-41D5-BEA8-08761FD18EA7}" name="贡献者及概述" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5F3CCB4D-2C11-4E2C-A334-F09D15293156}" name="地址" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{FD1BCD14-1903-4C1B-BD45-717B706BB44A}" name="序号" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{EF959D7D-11F7-41D5-BEA8-08761FD18EA7}" name="贡献者及概述" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{5F3CCB4D-2C11-4E2C-A334-F09D15293156}" name="地址" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3005,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3069,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3100,8 +3096,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3128,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3150,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3190,16 +3186,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3228,23 +3224,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -3284,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>68</v>
@@ -3306,7 +3302,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>71</v>
@@ -3317,10 +3313,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
@@ -3357,7 +3353,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3371,18 +3367,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -3395,7 +3391,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3477,18 +3473,18 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -3501,7 +3497,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3578,25 +3574,25 @@
         <v>100</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -3609,7 +3605,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3672,7 +3668,7 @@
         <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>80</v>
@@ -3726,7 +3722,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>80</v>
@@ -3825,8 +3821,8 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3838,16 +3834,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3861,62 +3857,62 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -3927,7 +3923,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -3938,7 +3934,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3949,7 +3945,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3960,7 +3956,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3971,7 +3967,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="24">
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3982,7 +3978,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3993,7 +3989,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+      <c r="A16" s="24">
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -4004,7 +4000,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="24">
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4015,7 +4011,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="24">
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4026,7 +4022,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="24">
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4037,7 +4033,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="24">
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -4048,7 +4044,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+      <c r="A21" s="24">
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4059,7 +4055,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+      <c r="A22" s="24">
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -4070,16 +4066,16 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -4097,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4108,10 +4104,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4119,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4152,10 +4148,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4163,7 +4159,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>23</v>
@@ -4174,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>29</v>
@@ -4185,7 +4181,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>30</v>
@@ -4196,10 +4192,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4207,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>32</v>
@@ -4218,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>22</v>
@@ -4229,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>21</v>
@@ -4240,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>33</v>
@@ -4251,7 +4247,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -4262,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>34</v>
@@ -4273,7 +4269,7 @@
         <v>17</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>35</v>
@@ -4284,10 +4280,10 @@
         <v>18</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4295,7 +4291,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>37</v>
@@ -4313,16 +4309,16 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -4340,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4354,7 +4350,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4362,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>31</v>
@@ -4376,7 +4372,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4384,10 +4380,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4395,10 +4391,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4409,7 +4405,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4420,7 +4416,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4439,10 +4435,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4457,14 +4453,14 @@
     <hyperlink ref="B55" r:id="rId2" display="https://gitee.com/z507525872" xr:uid="{898B3645-2E32-46ED-A0A5-86AD7E372571}"/>
     <hyperlink ref="B57" r:id="rId3" display="https://gitee.com/slaijie" xr:uid="{38F60590-A7F3-4A2E-BE49-BDC8CA8028CA}"/>
     <hyperlink ref="C61" r:id="rId4" xr:uid="{777FA3C2-58D6-41A1-B21C-5EA015CA3B3A}"/>
-    <hyperlink ref="C30" r:id="rId5" xr:uid="{2169EFF7-4492-4442-9E52-7EDF9C342CF8}"/>
+    <hyperlink ref="C30" r:id="rId5" display="https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18BookSource.json" xr:uid="{2169EFF7-4492-4442-9E52-7EDF9C342CF8}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{C56A8BAC-A0DA-46DA-962E-FB858331D8BF}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{FD29F88A-C56F-49D0-83CF-DE2F0563749F}"/>
     <hyperlink ref="C53" r:id="rId8" xr:uid="{110FAEC3-7FBD-4681-BF7B-92C919A3B9B8}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{D5A8F0C3-43E6-4ED6-A82D-F262B3A10A44}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{DE3EEB1E-1F2B-4280-8F21-0216BC9DEFF0}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{F4847896-99E4-4F92-94DD-F44FBDA20BBF}"/>
-    <hyperlink ref="C62" r:id="rId12" xr:uid="{7EB67FE1-0E86-474E-AAEA-1E25D191D6CB}"/>
+    <hyperlink ref="C62" r:id="rId12" display="https://github.com/ifwlzs/YueDuBackup/releases/" xr:uid="{7EB67FE1-0E86-474E-AAEA-1E25D191D6CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
@@ -4533,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>121</v>
@@ -4544,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>125</v>
@@ -4571,7 +4567,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4598,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4631,10 +4627,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4643,7 +4639,7 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{E123C72E-287C-46EE-ACF4-3CC6CC239C65}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{475E7F38-8D0E-48EE-909F-5310421DA794}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{D9BA02B6-DF8C-43D4-B866-6B2DD711B7DC}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{6FC84D73-285B-4198-9B0E-A7A4E962BD9B}"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18RssSource.json" xr:uid="{6FC84D73-285B-4198-9B0E-A7A4E962BD9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -4688,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>66</v>
@@ -4710,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4765,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,10 +4772,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,10 +4783,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4843,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,10 +4850,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4861,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +4883,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +4894,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,10 +4916,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理.xlsx
+++ b/数据整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\github\YueDuBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA7FA8-86BD-492A-9A85-157BC0CAC603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8680EC-31B6-4589-8DAA-30C78EC64D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="9" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="3" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://tianyuzhange.coding.net/p/booksource/d/shuyuan/git/raw/master/2.0shuyuan.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://guaner001125.coding.net/p/coding-code-guide/d/booksources/git/raw/master/sources/guaner.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,6 +809,10 @@
   </si>
   <si>
     <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18RssSource.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/tianyuzhange_admin/fireworks-sources/raw/master/huahuo.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3096,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3110,13 +3110,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3135,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,15 +3224,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3244,13 +3244,13 @@
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,10 +3269,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,10 +3291,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,10 +3302,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,10 +3313,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3382,16 +3382,16 @@
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3399,10 +3399,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -3411,13 +3411,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -3437,10 +3437,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -3449,13 +3449,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3463,18 +3463,18 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3488,16 +3488,16 @@
     </row>
     <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3505,13 +3505,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3519,10 +3519,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -3531,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -3543,13 +3543,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3557,13 +3557,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3571,18 +3571,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -3596,16 +3596,16 @@
     </row>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3613,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3627,13 +3627,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3641,10 +3641,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -3653,10 +3653,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -3665,13 +3665,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3679,13 +3679,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3693,10 +3693,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -3705,13 +3705,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3719,13 +3719,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3733,10 +3733,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -3745,13 +3745,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3759,13 +3759,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3773,13 +3773,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3787,13 +3787,13 @@
         <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3821,8 +3821,8 @@
   </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="C50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3835,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>1</v>
@@ -3861,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3872,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3883,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3894,10 +3894,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3905,10 +3905,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3938,10 +3938,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3949,10 +3949,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3974,7 +3974,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4029,7 +4029,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>1</v>
@@ -4093,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4104,10 +4104,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4115,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4137,10 +4137,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4148,10 +4148,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4159,10 +4159,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4170,10 +4170,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4181,10 +4181,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4192,10 +4192,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4203,10 +4203,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4214,10 +4214,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4225,10 +4225,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4236,10 +4236,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4247,7 +4247,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -4258,10 +4258,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4269,10 +4269,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4280,10 +4280,10 @@
         <v>18</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4291,10 +4291,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4302,15 +4302,15 @@
         <v>20</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>1</v>
@@ -4336,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4347,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4369,10 +4369,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4402,10 +4402,10 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4413,10 +4413,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4424,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4435,10 +4435,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -4507,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4594,10 +4594,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,10 +4605,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,10 +4627,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>1</v>
@@ -4684,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4747,13 +4747,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,10 +4772,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,10 +4783,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4825,13 +4825,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4850,10 +4850,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4861,10 +4861,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4872,10 +4872,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4883,10 +4883,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4894,10 +4894,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,10 +4905,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4916,10 +4916,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理.xlsx
+++ b/数据整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\github\YueDuBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8680EC-31B6-4589-8DAA-30C78EC64D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89F00F-42D3-4036-A655-273F62D756B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="3" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="6" xr2:uid="{65A48992-B9E3-43FA-821F-3BF44DC425AF}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="225">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,762 +56,774 @@
     <t>namofree 精简通用</t>
   </si>
   <si>
+    <t>namofree 合集</t>
+  </si>
+  <si>
+    <t>乃星女频</t>
+  </si>
+  <si>
+    <t>天域战歌 合集</t>
+  </si>
+  <si>
+    <t>千仞云 1</t>
+  </si>
+  <si>
+    <t>千仞云 2</t>
+  </si>
+  <si>
+    <t>风扬兮 1</t>
+  </si>
+  <si>
+    <t>风扬兮 2</t>
+  </si>
+  <si>
+    <t>Y大先生</t>
+  </si>
+  <si>
+    <t>onede</t>
+  </si>
+  <si>
+    <t>haxc981</t>
+  </si>
+  <si>
+    <t>天上的鱼儿飞啊</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/CNAD666/MyData/master/novel/bookshelf/N%E4%B8%AA%E4%B9%A6%E6%BA%90(%E9%95%BF%E6%9C%9F%E6%9B%B4%E6%96%B0).txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonbegonia R18书源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://guaner001125.coding.net/p/coding-code-guide/d/booksources/git/raw/master/sources/guaner.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/jia_to_hui/read-30-preferred-book-source/raw/master/bookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/bushixuanqi/book-source/%E5%A4%B1%E6%95%88%E4%BF%AE%E5%A4%8D%E5%90%88%E9%9B%86.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不世玄奇 高级用法书源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不世玄奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://moonbegonia.github.io/Source/yuedu/R18.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoonBegonia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pbpobing.coding.net/p/yueduyuan/d/sy/git/raw/master/yshj.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/z507525872/book-source/raw/master/32yousheng.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/z507525872/book-source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/cyao2q/yuedu@master/shuyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://slaijie.gitee.io/legado/legado/BookSource210116.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/ch4nge/readbook/raw/master/booksource_fl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4nge精选书源合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/YiJieSS/Yuedu/raw/master/bookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献者及概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJTQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读在线书源分享库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gedoor.github.io/MyBookshelf/bookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方书源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bookSources.github.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【推荐】近期精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【推荐】长期更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一程丶 精简通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1622744487.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一程丶 合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1617281456.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.site/shuyuan/1615385692.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1624832786.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1619967369.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.site/shuyuan/1612930793.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1620929243.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1619872864.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1617076136.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书源项目地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>https://github.com/gedoor/MyBookshelf/releases/tag/2.21.010422</t>
+  </si>
+  <si>
+    <t>https://www.90pan.com/wap.php?action=space&amp;uid=0&amp;folder_id=138703</t>
+  </si>
+  <si>
+    <t>酷安</t>
+  </si>
+  <si>
+    <t>https://www.coolapk.com/apk/io.legado.app.release</t>
+  </si>
+  <si>
+    <t>https://github.com/gedoor/legado/releases</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=io.legado.play.release</t>
+  </si>
+  <si>
+    <t>蓝奏云</t>
+  </si>
+  <si>
+    <t>https://kunfei.lanzoui.com/b0f7pt4ja</t>
+  </si>
+  <si>
+    <t>https://www.90pan.com/wap.php?action=space&amp;uid=0&amp;folder_id=138704</t>
+  </si>
+  <si>
+    <t>阅读2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>文件包含的内容（个人猜测）</t>
+  </si>
+  <si>
+    <t>config.xml</t>
+  </si>
+  <si>
+    <t>软件配置</t>
+  </si>
+  <si>
+    <t>myBookReplaceRule.json</t>
+  </si>
+  <si>
+    <t>替换规则（替换净化）</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>myBookSearchHistory.json</t>
+  </si>
+  <si>
+    <t>搜索历史</t>
+  </si>
+  <si>
+    <t>myBookShelf.json</t>
+  </si>
+  <si>
+    <t>个人的书架信息</t>
+  </si>
+  <si>
+    <t>myBookSource.json</t>
+  </si>
+  <si>
+    <t>图书来源（书源）</t>
+  </si>
+  <si>
+    <t>myTxtChapterRule.json</t>
+  </si>
+  <si>
+    <t>小说章节显示规则（目录规则）</t>
+  </si>
+  <si>
+    <t>2.0版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0前期版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0后期版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookSource.json</t>
+  </si>
+  <si>
+    <t>书源</t>
+  </si>
+  <si>
+    <t>bookshelf.json</t>
+  </si>
+  <si>
+    <t>书架信息</t>
+  </si>
+  <si>
+    <t>readConfig.json</t>
+  </si>
+  <si>
+    <t>阅读界面配置</t>
+  </si>
+  <si>
+    <t>replaceRule.json</t>
+  </si>
+  <si>
+    <t>替换净化规则</t>
+  </si>
+  <si>
+    <t>rssSource.json</t>
+  </si>
+  <si>
+    <t>bookGroup.json</t>
+  </si>
+  <si>
+    <t>书源分组信息</t>
+  </si>
+  <si>
+    <t>httpTTS.json</t>
+  </si>
+  <si>
+    <t>readRecord.json</t>
+  </si>
+  <si>
+    <t>记录每本书的阅读时长</t>
+  </si>
+  <si>
+    <t>rssSources.json</t>
+  </si>
+  <si>
+    <t>searchHistory.json</t>
+  </si>
+  <si>
+    <t>书籍搜索记录</t>
+  </si>
+  <si>
+    <t>shareReadConfig.json</t>
+  </si>
+  <si>
+    <t>默认阅读界面配置（可能这个意思吧，不太确定）</t>
+  </si>
+  <si>
+    <t>sourceSub.json</t>
+  </si>
+  <si>
+    <t>规则订阅信息</t>
+  </si>
+  <si>
+    <t>themeConfig.json</t>
+  </si>
+  <si>
+    <t>软件界面主题配置</t>
+  </si>
+  <si>
+    <t>txtTocRule.json</t>
+  </si>
+  <si>
+    <t>目录规则（对本地书籍有效）</t>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookshelf.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献者及概述</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/GJTQQ/YueDu/raw/master/Share/Rule.txt</t>
+  </si>
+  <si>
+    <t>https://gitee.com/schoolyears_admin/codes/pg95f0xdzwhlm24r7ek3a100/raw?blob_name=exportReplaceRule.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yck.mumuceo.com/yuedu/rssyuan/jsons?id=765</t>
+  </si>
+  <si>
+    <t>http://yck.mumuceo.com/yuedu/rssyuan/jsons?id=472-441</t>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1619456819.json</t>
+  </si>
+  <si>
+    <t>GJTQQ 净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolyears 净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源仓库</t>
+  </si>
+  <si>
+    <t>酷安评论区</t>
+  </si>
+  <si>
+    <t>软件公众号</t>
+  </si>
+  <si>
+    <t>legado-top</t>
+  </si>
+  <si>
+    <t>千仞雪</t>
+  </si>
+  <si>
+    <t>乘风</t>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1620296316.txt</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/ag2s20150909/TTS@master/release/</t>
+  </si>
+  <si>
+    <t>https://www.aliyundrive.com/s/mgUahLVRTqa</t>
+  </si>
+  <si>
+    <t>字体家</t>
+  </si>
+  <si>
+    <t>https://www.zitijia.com/</t>
+  </si>
+  <si>
+    <t>字体设计网</t>
+  </si>
+  <si>
+    <t>http://ziti.cndesign.com/fonts/list/1_0_0_0_1.html</t>
+  </si>
+  <si>
+    <t>字体天下</t>
+  </si>
+  <si>
+    <t>https://www.fonts.net.cn/</t>
+  </si>
+  <si>
+    <t>优优教程网字体下载</t>
+  </si>
+  <si>
+    <t>https://uiiiuiii.com/tool/typeface</t>
+  </si>
+  <si>
+    <t>https://www.fontspace.com/</t>
+  </si>
+  <si>
+    <t>https://www.dafont.com/</t>
+  </si>
+  <si>
+    <t>http://yck.mumuceo.com/yiciyuan/tuyuan/index.html</t>
+  </si>
+  <si>
+    <t>https://654373.caihuajing.workers.dev/?code=654373</t>
+  </si>
+  <si>
+    <t>公众号</t>
+  </si>
+  <si>
+    <t>yiciyuanapp</t>
+  </si>
+  <si>
+    <t>在库中?</t>
+  </si>
+  <si>
+    <t>订阅(RSS)源</t>
+  </si>
+  <si>
+    <t>在线朗读引擎（TTS）源</t>
+  </si>
+  <si>
+    <t>不想守望的守望的分享</t>
+  </si>
+  <si>
+    <t>Ag2s20150909分享，微软TTS</t>
+  </si>
+  <si>
+    <t>官方整理（2021.06.28）</t>
+  </si>
+  <si>
+    <t>FontSpace（英文）</t>
+  </si>
+  <si>
+    <t>DaFont（英文）</t>
+  </si>
+  <si>
+    <t>订阅源1</t>
+  </si>
+  <si>
+    <t>订阅源2</t>
+  </si>
+  <si>
+    <t>订阅源3</t>
+  </si>
+  <si>
+    <t>90网盘</t>
+  </si>
+  <si>
+    <t>Google play（暂时下架）</t>
+  </si>
+  <si>
+    <t>R18版本</t>
+  </si>
+  <si>
+    <t>软件官方TG通知群获取</t>
+  </si>
+  <si>
+    <t>文件说明</t>
+  </si>
+  <si>
+    <t>订阅源(RSS)</t>
+  </si>
+  <si>
+    <t>主题</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>异次元app 图源</t>
+  </si>
+  <si>
+    <t>软件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗读引擎TTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1627862913.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namo书源</t>
+  </si>
+  <si>
+    <t>https://tangguochaotian.coding.net/p/tangguoshuyuan1015/d/tangguo/git/raw/master/exportBookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://olixina.coding.net/public/yuedu/source/git/files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bushixuanqi/book-source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰carry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/ch4nge/readbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜恙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/slaijie/legado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyao2q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/CNAD666/MyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MoonBegonia/Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/GJTQQ/Yuedu_SY/tree/master/BookSources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源仓库（首推）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不世玄奇 全网通用源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/bushixuanqi/book-source/%E4%B9%A6%E6%BA%90%E5%90%88%E9%9B%86.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨江美波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰 听书源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰 32有声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰 书源合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pbpobing.coding.net/p/yueduyuan/d/sy/git/raw/master/syhj.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haxc 漫画源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关耳 女频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://olixina.coding.net/p/yuedu/d/source/git/raw/master/bookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAD666 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellyoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你个嘚嘚745L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/ch4nge/readbook/raw/master/booksource200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一介书生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1627802706.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不狂(2,3可用;晋江/长佩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果书源(女频言情)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1627741986.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30一程270书源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.30一程203订阅源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1627682222.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51Font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://51font.17font.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18BookSource.json</t>
+  </si>
+  <si>
+    <t>oli-fa的发布页</t>
+  </si>
+  <si>
+    <t>https://github.com/oli-fa/YueDuBackup/releases/</t>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18RssSource.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/tianyuzhange_admin/fireworks-sources/raw/master/huahuo.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1619911647.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1619463469.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1617406392.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shuyuan.miaogongzi.net/shuyuan/1623355431.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://shuyuan.miaogongzi.net/shuyuan/1622509629.json</t>
-  </si>
-  <si>
-    <t>namofree 合集</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1617406392.json</t>
-  </si>
-  <si>
-    <t>乃星女频</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1623355431.json</t>
-  </si>
-  <si>
-    <t>天域战歌 合集</t>
-  </si>
-  <si>
-    <t>千仞云 1</t>
-  </si>
-  <si>
-    <t>千仞云 2</t>
-  </si>
-  <si>
-    <t>风扬兮 1</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1619463469.txt</t>
-  </si>
-  <si>
-    <t>风扬兮 2</t>
-  </si>
-  <si>
-    <t>Y大先生</t>
-  </si>
-  <si>
-    <t>onede</t>
-  </si>
-  <si>
-    <t>haxc981</t>
-  </si>
-  <si>
-    <t>天上的鱼儿飞啊</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1619911647.txt</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/CNAD666/MyData/master/novel/bookshelf/N%E4%B8%AA%E4%B9%A6%E6%BA%90(%E9%95%BF%E6%9C%9F%E6%9B%B4%E6%96%B0).txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moonbegonia R18书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://guaner001125.coding.net/p/coding-code-guide/d/booksources/git/raw/master/sources/guaner.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/jia_to_hui/read-30-preferred-book-source/raw/master/bookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/bushixuanqi/book-source/%E5%A4%B1%E6%95%88%E4%BF%AE%E5%A4%8D%E5%90%88%E9%9B%86.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不世玄奇 高级用法书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不世玄奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://moonbegonia.github.io/Source/yuedu/R18.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoonBegonia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pbpobing.coding.net/p/yueduyuan/d/sy/git/raw/master/yshj.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/z507525872/book-source/raw/master/32yousheng.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/z507525872/book-source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://haxc.coding.net/p/booksrc/d/booksrc/git/raw/master/Book3.0Source.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/cyao2q/yuedu@master/shuyuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://slaijie.gitee.io/legado/legado/BookSource210116.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/ch4nge/readbook/raw/master/booksource_fl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4nge精选书源合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/YiJieSS/Yuedu/raw/master/bookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献者及概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GJTQQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读在线书源分享库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gedoor.github.io/MyBookshelf/bookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bookSources.github.io</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【推荐】近期精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【推荐】长期更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一程丶 精简通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1622744487.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一程丶 合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1617281456.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.site/shuyuan/1615385692.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1624832786.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1619967369.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.site/shuyuan/1612930793.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1620929243.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1619872864.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1617076136.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书源项目地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>Github</t>
-  </si>
-  <si>
-    <t>https://github.com/gedoor/MyBookshelf/releases/tag/2.21.010422</t>
-  </si>
-  <si>
-    <t>https://www.90pan.com/wap.php?action=space&amp;uid=0&amp;folder_id=138703</t>
-  </si>
-  <si>
-    <t>酷安</t>
-  </si>
-  <si>
-    <t>https://www.coolapk.com/apk/io.legado.app.release</t>
-  </si>
-  <si>
-    <t>https://github.com/gedoor/legado/releases</t>
-  </si>
-  <si>
-    <t>https://play.google.com/store/apps/details?id=io.legado.play.release</t>
-  </si>
-  <si>
-    <t>蓝奏云</t>
-  </si>
-  <si>
-    <t>https://kunfei.lanzoui.com/b0f7pt4ja</t>
-  </si>
-  <si>
-    <t>https://www.90pan.com/wap.php?action=space&amp;uid=0&amp;folder_id=138704</t>
-  </si>
-  <si>
-    <t>阅读2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>文件包含的内容（个人猜测）</t>
-  </si>
-  <si>
-    <t>config.xml</t>
-  </si>
-  <si>
-    <t>软件配置</t>
-  </si>
-  <si>
-    <t>myBookReplaceRule.json</t>
-  </si>
-  <si>
-    <t>替换规则（替换净化）</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>myBookSearchHistory.json</t>
-  </si>
-  <si>
-    <t>搜索历史</t>
-  </si>
-  <si>
-    <t>myBookShelf.json</t>
-  </si>
-  <si>
-    <t>个人的书架信息</t>
-  </si>
-  <si>
-    <t>myBookSource.json</t>
-  </si>
-  <si>
-    <t>图书来源（书源）</t>
-  </si>
-  <si>
-    <t>myTxtChapterRule.json</t>
-  </si>
-  <si>
-    <t>小说章节显示规则（目录规则）</t>
-  </si>
-  <si>
-    <t>2.0版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0前期版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0后期版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookSource.json</t>
-  </si>
-  <si>
-    <t>书源</t>
-  </si>
-  <si>
-    <t>bookshelf.json</t>
-  </si>
-  <si>
-    <t>书架信息</t>
-  </si>
-  <si>
-    <t>readConfig.json</t>
-  </si>
-  <si>
-    <t>阅读界面配置</t>
-  </si>
-  <si>
-    <t>replaceRule.json</t>
-  </si>
-  <si>
-    <t>替换净化规则</t>
-  </si>
-  <si>
-    <t>rssSource.json</t>
-  </si>
-  <si>
-    <t>bookGroup.json</t>
-  </si>
-  <si>
-    <t>书源分组信息</t>
-  </si>
-  <si>
-    <t>httpTTS.json</t>
-  </si>
-  <si>
-    <t>readRecord.json</t>
-  </si>
-  <si>
-    <t>记录每本书的阅读时长</t>
-  </si>
-  <si>
-    <t>rssSources.json</t>
-  </si>
-  <si>
-    <t>searchHistory.json</t>
-  </si>
-  <si>
-    <t>书籍搜索记录</t>
-  </si>
-  <si>
-    <t>shareReadConfig.json</t>
-  </si>
-  <si>
-    <t>默认阅读界面配置（可能这个意思吧，不太确定）</t>
-  </si>
-  <si>
-    <t>sourceSub.json</t>
-  </si>
-  <si>
-    <t>规则订阅信息</t>
-  </si>
-  <si>
-    <t>themeConfig.json</t>
-  </si>
-  <si>
-    <t>软件界面主题配置</t>
-  </si>
-  <si>
-    <t>txtTocRule.json</t>
-  </si>
-  <si>
-    <t>目录规则（对本地书籍有效）</t>
-  </si>
-  <si>
-    <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookshelf.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贡献者及概述</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1623087998.txt</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/GJTQQ/YueDu/raw/master/Share/Rule.txt</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1623124621.txt</t>
-  </si>
-  <si>
-    <t>乌云 基础版净化规则</t>
-  </si>
-  <si>
-    <t>乌云 完整版净化规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/schoolyears_admin/codes/pg95f0xdzwhlm24r7ek3a100/raw?blob_name=exportReplaceRule.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yck.mumuceo.com/yuedu/rssyuan/jsons?id=765</t>
-  </si>
-  <si>
-    <t>http://yck.mumuceo.com/yuedu/rssyuan/jsons?id=472-441</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1619456819.json</t>
-  </si>
-  <si>
-    <t>GJTQQ 净化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schoolyears 净化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源仓库</t>
-  </si>
-  <si>
-    <t>http://yck.mumuceo.com/yuedu/theme/index.html</t>
-  </si>
-  <si>
-    <t>酷安评论区</t>
-  </si>
-  <si>
-    <t>软件公众号</t>
-  </si>
-  <si>
-    <t>legado-top</t>
-  </si>
-  <si>
-    <t>千仞雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yckceo.com/yuedu/shuyuan/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天域战歌 花火源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://haxc.coding.net/p/booksrc/d/booksrc/git/raw/master/bookSource.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://shuyuan.miaogongzi.net/shuyuan/1625432648.json</t>
-  </si>
-  <si>
-    <t>乘风</t>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1620296316.txt</t>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/ag2s20150909/TTS@master/release/</t>
-  </si>
-  <si>
-    <t>https://www.aliyundrive.com/s/mgUahLVRTqa</t>
-  </si>
-  <si>
-    <t>字体家</t>
-  </si>
-  <si>
-    <t>https://www.zitijia.com/</t>
-  </si>
-  <si>
-    <t>字体设计网</t>
-  </si>
-  <si>
-    <t>http://ziti.cndesign.com/fonts/list/1_0_0_0_1.html</t>
-  </si>
-  <si>
-    <t>字体天下</t>
-  </si>
-  <si>
-    <t>https://www.fonts.net.cn/</t>
-  </si>
-  <si>
-    <t>优优教程网字体下载</t>
-  </si>
-  <si>
-    <t>https://uiiiuiii.com/tool/typeface</t>
-  </si>
-  <si>
-    <t>https://www.fontspace.com/</t>
-  </si>
-  <si>
-    <t>https://www.dafont.com/</t>
-  </si>
-  <si>
-    <t>http://yck.mumuceo.com/yiciyuan/tuyuan/index.html</t>
-  </si>
-  <si>
-    <t>https://654373.caihuajing.workers.dev/?code=654373</t>
-  </si>
-  <si>
-    <t>公众号</t>
-  </si>
-  <si>
-    <t>yiciyuanapp</t>
-  </si>
-  <si>
-    <t>在库中?</t>
-  </si>
-  <si>
-    <t>订阅(RSS)源</t>
-  </si>
-  <si>
-    <t>在线朗读引擎（TTS）源</t>
-  </si>
-  <si>
-    <t>不想守望的守望的分享</t>
-  </si>
-  <si>
-    <t>Ag2s20150909分享，微软TTS</t>
-  </si>
-  <si>
-    <t>官方整理（2021.06.28）</t>
-  </si>
-  <si>
-    <t>FontSpace（英文）</t>
-  </si>
-  <si>
-    <t>DaFont（英文）</t>
-  </si>
-  <si>
-    <t>订阅源1</t>
-  </si>
-  <si>
-    <t>订阅源2</t>
-  </si>
-  <si>
-    <t>订阅源3</t>
-  </si>
-  <si>
-    <t>90网盘</t>
-  </si>
-  <si>
-    <t>Google play（暂时下架）</t>
-  </si>
-  <si>
-    <t>R18版本</t>
-  </si>
-  <si>
-    <t>软件官方TG通知群获取</t>
-  </si>
-  <si>
-    <t>文件说明</t>
-  </si>
-  <si>
-    <t>订阅源(RSS)</t>
-  </si>
-  <si>
-    <t>主题</t>
-  </si>
-  <si>
-    <t>字体</t>
-  </si>
-  <si>
-    <t>异次元app 图源</t>
-  </si>
-  <si>
-    <t>软件下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗读引擎TTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1627862913.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namo书源</t>
-  </si>
-  <si>
-    <t>https://tangguochaotian.coding.net/p/tangguoshuyuan1015/d/tangguo/git/raw/master/exportBookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://olixina.coding.net/public/yuedu/source/git/files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渊呀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/bushixuanqi/book-source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰carry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/ch4nge/readbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芜恙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/slaijie/legado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyao2q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/CNAD666/MyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/MoonBegonia/Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/GJTQQ/Yuedu_SY/tree/master/BookSources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源仓库（首推）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://yck.mumuceo.com/yuedu/shuyuan/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不世玄奇 全网通用源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/bushixuanqi/book-source/%E4%B9%A6%E6%BA%90%E5%90%88%E9%9B%86.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滨江美波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰 听书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰 32有声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破冰 书源合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pbpobing.coding.net/p/yueduyuan/d/sy/git/raw/master/syhj.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>haxc 漫画源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关耳 女频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天域战歌 2.0书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://olixina.coding.net/p/yuedu/d/source/git/raw/master/bookSource.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAD666 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellyoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你个嘚嘚745L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/ch4nge/readbook/raw/master/booksource200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一介书生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1627802706.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不狂(2,3可用;晋江/长佩)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糖果书源(女频言情)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1627741986.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.30一程270书源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.30一程203订阅源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shuyuan.miaogongzi.net/shuyuan/1627682222.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51Font</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://51font.17font.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oli-fa R18</t>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18BookSource.json</t>
-  </si>
-  <si>
-    <t>oli-fa的发布页</t>
-  </si>
-  <si>
-    <t>https://github.com/oli-fa/YueDuBackup/releases/</t>
-  </si>
-  <si>
-    <t>oli-fa订阅源</t>
-  </si>
-  <si>
-    <t>https://cdn.jsdelivr.net/gh/oli-fa/YueDuBackup@master/R18/R18RssSource.json</t>
-  </si>
-  <si>
-    <t>https://gitee.com/tianyuzhange_admin/fireworks-sources/raw/master/huahuo.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shuyuan.miaogongzi.net/shuyuan/1637686001.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千仞云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oli-fa菊花花订阅源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌云 净化规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/gh/oli-fa/yue@main/replace/wuyun.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oli-fa菊花花R18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yckceo.com/yuedu/theme/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,12 +929,6 @@
       <color theme="10"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1089,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,9 +1168,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1180,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1188,263 +1197,25 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1455,7 +1226,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -1468,8 +1239,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1477,10 +1246,11 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <charset val="134"/>
         <scheme val="none"/>
       </font>
@@ -1491,7 +1261,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -1504,8 +1274,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1513,12 +1281,571 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1535,18 +1862,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
@@ -1566,71 +1881,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
@@ -1650,45 +1900,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="6" tint="0.39997558519241921"/>
@@ -1696,18 +1907,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="6" tint="0.39997558519241921"/>
@@ -1734,172 +1933,23 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1907,18 +1957,6 @@
           <color indexed="64"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2507,72 +2545,72 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}" name="表9" displayName="表9" ref="A1:C5" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
-  <autoFilter ref="A1:C5" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}" name="表9" displayName="表9" ref="A1:C4" totalsRowShown="0" headerRowDxfId="50" dataDxfId="20" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A1:C4" xr:uid="{AEA08F45-3049-4746-BD5D-65C0F27166ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{91A5ED27-167C-4C7E-8382-A0CB17097771}" name="序号" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{5FF0381E-9EF5-4F42-AAD0-B8F04737E501}" name="贡献者及概述" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{2DDB11BB-43A4-4AF1-A7CF-87E3E926B20A}" name="地址" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{91A5ED27-167C-4C7E-8382-A0CB17097771}" name="序号" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5FF0381E-9EF5-4F42-AAD0-B8F04737E501}" name="贡献者及概述" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{2DDB11BB-43A4-4AF1-A7CF-87E3E926B20A}" name="地址" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}" name="表10" displayName="表10" ref="A1:C5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}" name="表10" displayName="表10" ref="A1:C5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="16" headerRowBorderDxfId="46">
   <autoFilter ref="A1:C5" xr:uid="{E48826DE-F4DB-40E4-9A06-B3DE6C217585}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3216B9F9-BD07-446F-94C8-868767E5DBEA}" name="序号" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{FAA6CDCE-40E1-4500-9002-1301E2F0012D}" name="贡献者及概述" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{05EA6986-5398-4511-B6F0-8346FF24994C}" name="地址" dataDxfId="26" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{3216B9F9-BD07-446F-94C8-868767E5DBEA}" name="序号" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FAA6CDCE-40E1-4500-9002-1301E2F0012D}" name="贡献者及概述" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{05EA6986-5398-4511-B6F0-8346FF24994C}" name="地址" dataDxfId="17" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}" name="表11" displayName="表11" ref="A1:C4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}" name="表11" displayName="表11" ref="A1:C4" totalsRowShown="0" headerRowDxfId="45" dataDxfId="0" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="A1:C4" xr:uid="{523F3E14-D125-47F6-98A8-5EEEC01347F6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2C68F0C7-EA52-4C0D-98E4-A84E77036619}" name="序号" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{830C193C-5696-4964-919D-F19509997A77}" name="贡献者及概述" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{E3688F2C-EF2A-4A4D-9C59-B56618F62883}" name="地址" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2C68F0C7-EA52-4C0D-98E4-A84E77036619}" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{830C193C-5696-4964-919D-F19509997A77}" name="贡献者及概述" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E3688F2C-EF2A-4A4D-9C59-B56618F62883}" name="地址" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}" name="表12" displayName="表12" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16">
-  <autoFilter ref="A1:C4" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}" name="表12" displayName="表12" ref="A1:C5" totalsRowShown="0" headerRowDxfId="41" dataDxfId="12" headerRowBorderDxfId="40">
+  <autoFilter ref="A1:C5" xr:uid="{D4BFC116-B7C5-4074-BBB3-AB54FDA8B629}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BEDDCD38-D943-458C-A87E-8C13CEBC60DB}" name="序号" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BCBB1BE6-D033-4D9E-BDFC-75D9037A7F24}" name="贡献者及概述" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B9938B71-DE73-4AF1-AACA-96AF42B00F43}" name="地址" dataDxfId="12" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{BEDDCD38-D943-458C-A87E-8C13CEBC60DB}" name="序号" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{BCBB1BE6-D033-4D9E-BDFC-75D9037A7F24}" name="贡献者及概述" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{B9938B71-DE73-4AF1-AACA-96AF42B00F43}" name="地址" dataDxfId="13" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}" name="表13" displayName="表13" ref="A1:C9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}" name="表13" displayName="表13" ref="A1:C9" totalsRowShown="0" headerRowDxfId="39" dataDxfId="8" headerRowBorderDxfId="38">
   <autoFilter ref="A1:C9" xr:uid="{4431A570-D88E-497B-94C1-96495A989369}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65082791-741B-4F1F-A02F-A3459CE3D366}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C6BDDD30-4CDA-4ABE-8F44-09AD6BADEB38}" name="贡献者及概述" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{33C696C7-A033-48CB-B21E-5B991ED07242}" name="地址" dataDxfId="6" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{65082791-741B-4F1F-A02F-A3459CE3D366}" name="序号" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C6BDDD30-4CDA-4ABE-8F44-09AD6BADEB38}" name="贡献者及概述" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{33C696C7-A033-48CB-B21E-5B991ED07242}" name="地址" dataDxfId="9" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}" name="表14" displayName="表14" ref="A1:C4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}" name="表14" displayName="表14" ref="A1:C4" totalsRowShown="0" headerRowDxfId="37" dataDxfId="4" headerRowBorderDxfId="36">
   <autoFilter ref="A1:C4" xr:uid="{98D72EE9-668F-4D61-A9A7-091E30245398}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A53C8E88-865C-481A-8B2E-7A36F1B11B8F}" name="序号" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BF5FBCB5-A727-4351-AE12-3F32FDFC90BD}" name="贡献者及概述" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A47D4E4B-5E09-4709-8428-A76423FB1783}" name="地址" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A53C8E88-865C-481A-8B2E-7A36F1B11B8F}" name="序号" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BF5FBCB5-A727-4351-AE12-3F32FDFC90BD}" name="贡献者及概述" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A47D4E4B-5E09-4709-8428-A76423FB1783}" name="地址" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2642,36 +2680,36 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}" name="表3" displayName="表3" ref="A27:C47" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
-  <autoFilter ref="A27:C47" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}" name="表3" displayName="表3" ref="A27:C48" totalsRowShown="0" headerRowDxfId="54" dataDxfId="28" tableBorderDxfId="53">
+  <autoFilter ref="A27:C48" xr:uid="{D9B49DA1-78EB-4B94-B73D-E971591BE1D0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{066F47BE-8688-476B-8F09-0388BC6B6137}" name="序号" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{613C778E-B08F-4640-96FC-2876D027745A}" name="贡献者及概述" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{DF8CA84D-90EE-4FE1-9E0A-3BC75326C828}" name="地址" dataDxfId="49" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{066F47BE-8688-476B-8F09-0388BC6B6137}" name="序号" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{613C778E-B08F-4640-96FC-2876D027745A}" name="贡献者及概述" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{DF8CA84D-90EE-4FE1-9E0A-3BC75326C828}" name="地址" dataDxfId="29" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}" name="表4" displayName="表4" ref="A3:C22" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}" name="表4" displayName="表4" ref="A3:C22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="24">
   <autoFilter ref="A3:C22" xr:uid="{EFF0DF06-3FF9-4B00-8303-B80C958C35CE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B56774E-FDFE-42BF-9E85-0AF84995787C}" name="序号" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{14E7B89C-BCA9-4253-B66B-B823F519AFD9}" name="贡献者及概述" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{5094653F-7A90-4AAC-ABC7-2EDF315C5794}" name="地址" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{5B56774E-FDFE-42BF-9E85-0AF84995787C}" name="序号" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{14E7B89C-BCA9-4253-B66B-B823F519AFD9}" name="贡献者及概述" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{5094653F-7A90-4AAC-ABC7-2EDF315C5794}" name="地址" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}" name="表5" displayName="表5" ref="A52:C62" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A52:C62" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}" name="表5" displayName="表5" ref="A54:C64" totalsRowShown="0" headerRowDxfId="51" dataDxfId="32">
+  <autoFilter ref="A54:C64" xr:uid="{FC5CBF4C-CAAD-4AE8-A88C-B5E2FE0BD935}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FD1BCD14-1903-4C1B-BD45-717B706BB44A}" name="序号" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{EF959D7D-11F7-41D5-BEA8-08761FD18EA7}" name="贡献者及概述" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{5F3CCB4D-2C11-4E2C-A334-F09D15293156}" name="地址" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{FD1BCD14-1903-4C1B-BD45-717B706BB44A}" name="序号" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{EF959D7D-11F7-41D5-BEA8-08761FD18EA7}" name="贡献者及概述" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{5F3CCB4D-2C11-4E2C-A334-F09D15293156}" name="地址" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2993,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3087,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3095,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3135,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3110,13 +3148,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3135,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3146,22 +3184,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5F5F28D9-3EBB-495B-9CFC-94877569D935}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{15F3DCFA-E466-43BB-A6DF-45112C2B1C6F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3186,26 +3220,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3247,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,33 +3258,33 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,10 +3336,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,10 +3347,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
@@ -3367,31 +3401,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3399,10 +3433,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -3411,13 +3445,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3425,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11"/>
     </row>
@@ -3437,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -3449,13 +3483,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3463,41 +3497,41 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3505,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3519,10 +3553,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D16" s="11"/>
     </row>
@@ -3531,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -3543,13 +3577,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3557,13 +3591,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3571,41 +3605,41 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3613,13 +3647,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3627,13 +3661,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3641,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11"/>
     </row>
@@ -3653,10 +3687,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -3665,13 +3699,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3679,13 +3713,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3693,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -3705,13 +3739,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3719,13 +3753,13 @@
         <v>9</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3733,10 +3767,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -3745,13 +3779,13 @@
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3759,13 +3793,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3773,13 +3807,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -3787,13 +3821,13 @@
         <v>14</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3819,10 +3853,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3834,255 +3868,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>177</v>
+        <v>166</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>179</v>
+        <v>197</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>212</v>
+        <v>199</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>215</v>
+        <v>200</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="C10" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="C16" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="C17" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
+      <c r="C22" s="29" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>1</v>
@@ -4093,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4104,10 +4138,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4115,10 +4149,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>219</v>
+        <v>223</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4126,10 +4160,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4137,10 +4171,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4148,10 +4182,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4159,10 +4193,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4170,10 +4204,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4181,10 +4215,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4192,10 +4226,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4203,10 +4237,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>31</v>
+        <v>187</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4214,10 +4248,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4225,10 +4259,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4236,10 +4270,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4247,10 +4281,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4258,10 +4292,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4269,10 +4303,10 @@
         <v>17</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4280,10 +4314,10 @@
         <v>18</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>207</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4291,10 +4325,10 @@
         <v>19</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4302,172 +4336,174 @@
         <v>20</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-    </row>
-    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>21</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+    </row>
+    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>1</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>30</v>
+        <v>169</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>5</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
+        <v>8</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>9</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>10</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>221</v>
+      <c r="B64" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A25:C26"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="A52:C53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1" xr:uid="{D8F863A3-1A41-4188-A813-513ED54A7DBE}"/>
-    <hyperlink ref="B55" r:id="rId2" display="https://gitee.com/z507525872" xr:uid="{898B3645-2E32-46ED-A0A5-86AD7E372571}"/>
-    <hyperlink ref="B57" r:id="rId3" display="https://gitee.com/slaijie" xr:uid="{38F60590-A7F3-4A2E-BE49-BDC8CA8028CA}"/>
-    <hyperlink ref="C61" r:id="rId4" xr:uid="{777FA3C2-58D6-41A1-B21C-5EA015CA3B3A}"/>
-    <hyperlink ref="C30" r:id="rId5" display="https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18BookSource.json" xr:uid="{2169EFF7-4492-4442-9E52-7EDF9C342CF8}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{C56A8BAC-A0DA-46DA-962E-FB858331D8BF}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{FD29F88A-C56F-49D0-83CF-DE2F0563749F}"/>
-    <hyperlink ref="C53" r:id="rId8" xr:uid="{110FAEC3-7FBD-4681-BF7B-92C919A3B9B8}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{D5A8F0C3-43E6-4ED6-A82D-F262B3A10A44}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{DE3EEB1E-1F2B-4280-8F21-0216BC9DEFF0}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{F4847896-99E4-4F92-94DD-F44FBDA20BBF}"/>
-    <hyperlink ref="C62" r:id="rId12" display="https://github.com/ifwlzs/YueDuBackup/releases/" xr:uid="{7EB67FE1-0E86-474E-AAEA-1E25D191D6CB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4477,10 +4513,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -4507,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4518,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -4529,32 +4565,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{7B55B8E5-8C2E-4C1B-9BE2-823F551BC32F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4567,7 +4589,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4583,21 +4605,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,10 +4627,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>125</v>
+        <v>151</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>152</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,24 +4649,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>153</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E123C72E-287C-46EE-ACF4-3CC6CC239C65}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{475E7F38-8D0E-48EE-909F-5310421DA794}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{D9BA02B6-DF8C-43D4-B866-6B2DD711B7DC}"/>
-    <hyperlink ref="C2" r:id="rId4" display="https://cdn.jsdelivr.net/gh/ifwlzs/YueDuBackup@master/R18/R18RssSource.json" xr:uid="{6FC84D73-285B-4198-9B0E-A7A4E962BD9B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4656,8 +4672,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>1</v>
@@ -4684,10 +4700,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,10 +4711,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>65</v>
+        <v>121</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,22 +4722,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{41BC0CC0-05EB-48D9-BB81-BB398C00ADA5}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5DEDAB8C-8904-4D24-8EC8-EADFB272B71A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4731,10 +4743,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4747,13 +4759,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>136</v>
+        <v>219</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,10 +4784,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,23 +4795,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{437DBAE6-CFC1-40A9-BBC0-4221B49D393A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9746C94A-9564-4A79-BDDE-DBF7AADF198B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{93228896-D143-413E-A8AE-51323C45DB93}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4812,7 +4830,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -4825,13 +4843,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4839,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4850,10 +4868,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4861,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4872,10 +4890,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4883,10 +4901,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4894,10 +4912,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,10 +4923,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>149</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4916,28 +4934,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B7AEA290-C4BF-4F1B-A03B-EE98ECB0FD2D}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D5F098CC-704D-46F6-B24B-CD0C2507E3B9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A4F84A71-D95D-477F-83B8-E38280B19A0B}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{B7CA4968-A210-4F10-9121-B59D5F441FFA}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{DC50216A-D4F8-4129-84BE-452135087E9F}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{8FA86C7E-F0D9-433B-96B1-85D02EB30D92}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{24FE5F55-DBB1-436E-BDEE-C8B860A49065}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{C8284A5B-75F6-4F33-99D1-0F784792FF52}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>